--- a/reproduced_results_dimensions_01_to_10.xlsx
+++ b/reproduced_results_dimensions_01_to_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\COMP\COMP551\COMP551_neuro-gang\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\COMP\COMP551\Exploring_papers\COMP551_reproductibility_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403BFCA-5A81-4430-A43C-1F933A77E005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FB0E44-5BDE-488A-9F14-44DFDF5BB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digit_MNIST_Acc" sheetId="2" r:id="rId1"/>
@@ -615,7 +615,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -629,7 +629,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Digit MNIST</a:t>
+              <a:t>Accuracy results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -647,7 +647,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -673,7 +673,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>PCA</c:v>
+            <c:v>dPCA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -788,7 +788,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>DAE</c:v>
+            <c:v>dDAE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -899,6 +899,158 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>fPCA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>full_original_mnist_dimension01!$D$29:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31197999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56281999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65092000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74602000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77895999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78957999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80408000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81330000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C14D-4D3B-A4EC-4C5B37AA0957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>fDAE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>full_original_mnist_dimension01!$D$41:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.67479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75192000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81920000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83274000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83796000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84555999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85026000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85618000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C14D-4D3B-A4EC-4C5B37AA0957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -914,6 +1066,7 @@
         <c:axId val="1011127999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -924,7 +1077,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -956,7 +1109,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -994,7 +1147,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1041,7 +1194,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1073,7 +1226,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1111,7 +1264,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1153,7 +1306,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1185,12 +1338,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1200,7 +1348,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1229,7 +1377,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1261,7 +1409,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1528,6 +1676,7 @@
         <c:axId val="893955503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1538,7 +1687,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1570,7 +1719,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1608,7 +1757,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1655,7 +1804,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1687,7 +1836,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1725,7 +1874,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1767,7 +1916,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1799,12 +1948,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1814,7 +1958,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1843,7 +1987,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1857,7 +2001,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Digit MNIST</a:t>
+              <a:t>Runtime Results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1875,7 +2019,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1901,7 +2045,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>PCA</c:v>
+            <c:v>dPCA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2016,7 +2160,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>DAE</c:v>
+            <c:v>dDAE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2127,6 +2271,158 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>fPCA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>full_original_mnist_dimension01!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1375714299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2056810859999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3069373130000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.380398655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1880517479999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9806803230000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.114368963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2182342529999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2555148119999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2784270289999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B2F-465F-826F-6B483CC75281}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>fDAE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>full_original_mnist_dimension01!$B$41:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>511.6136922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>483.82716859999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>541.72394580000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522.00430110000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>474.5830378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.13142729999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410.10867109999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>506.45681239999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>539.39493100000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>477.38485880000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B2F-465F-826F-6B483CC75281}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2142,6 +2438,7 @@
         <c:axId val="1263179903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2152,7 +2449,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2165,14 +2462,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-CA"/>
                   <a:t>Number of dimensions</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-CA" sz="400">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2189,7 +2481,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2227,7 +2519,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2274,7 +2566,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2306,7 +2598,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2344,7 +2636,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2386,7 +2678,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2418,12 +2710,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2433,7 +2720,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2462,7 +2749,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2494,7 +2781,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2761,6 +3048,7 @@
         <c:axId val="1258688783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2771,7 +3059,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2784,14 +3072,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-CA"/>
                   <a:t>Number of dimensions</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-CA" sz="1000">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2808,7 +3091,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2846,7 +3129,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2893,7 +3176,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2925,7 +3208,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2963,7 +3246,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3005,7 +3288,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3037,12 +3320,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3052,7 +3330,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5310,7 +5588,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5321,7 +5599,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5332,7 +5610,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673171" cy="6295793"/>
+    <xdr:ext cx="8664503" cy="6288665"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5365,7 +5643,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673171" cy="6295793"/>
+    <xdr:ext cx="8664503" cy="6288665"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5398,7 +5676,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673171" cy="6295793"/>
+    <xdr:ext cx="8664503" cy="6288665"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5431,7 +5709,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673171" cy="6295793"/>
+    <xdr:ext cx="8664503" cy="6288665"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
